--- a/script/v1.xlsx
+++ b/script/v1.xlsx
@@ -24,22 +24,133 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>Hello.  Welcome to my game.  The winner is the last man standing</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+  <si>
+    <t>Handover</t>
+  </si>
+  <si>
+    <t>Information</t>
+  </si>
+  <si>
+    <t>Welcome to my game.  Only one of you gets to survive.  If you're lucky.  You had the pleasure of meeting me first, so pass this phone to someone who deserves some information.</t>
+  </si>
+  <si>
+    <t>Pass the phone to someone you want to hurt.</t>
+  </si>
+  <si>
+    <t>Pass the phone to someone you want to help.</t>
+  </si>
+  <si>
+    <t>Bed1</t>
+  </si>
+  <si>
+    <t>Bed2</t>
+  </si>
+  <si>
+    <t>Crate</t>
+  </si>
+  <si>
+    <t>Light</t>
+  </si>
+  <si>
+    <t>Grate1</t>
+  </si>
+  <si>
+    <t>Grate2</t>
+  </si>
+  <si>
+    <t>Toilet</t>
+  </si>
+  <si>
+    <t>Sink</t>
+  </si>
+  <si>
+    <t>Shelf</t>
+  </si>
+  <si>
+    <t>Real Knife</t>
+  </si>
+  <si>
+    <t>Fake Knife</t>
+  </si>
+  <si>
+    <t>Real Mask</t>
+  </si>
+  <si>
+    <t>Fake Mask</t>
+  </si>
+  <si>
+    <t>There is a knife hidden on the shelf</t>
+  </si>
+  <si>
+    <t>There is a knife hidden in the crate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It seems the last person wants to help you.  </t>
+  </si>
+  <si>
+    <t>Don't look under Bed1</t>
+  </si>
+  <si>
+    <t>Pass the phone to someone you want to help</t>
+  </si>
+  <si>
+    <t>The left hand gas line is harmless.</t>
+  </si>
+  <si>
+    <t>Pass the phone to someone you want to hurt</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I told the last player I would lie to you.  I lied to </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">them. </t>
+    </r>
+  </si>
+  <si>
+    <t>The right-hand gas line contains poison.</t>
+  </si>
+  <si>
+    <t>Pass the phone to anyone</t>
+  </si>
+  <si>
+    <t>There is a gas mask hidden somewhere.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -62,8 +173,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -344,20 +456,160 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2"/>
+  <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="F41" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41" t="s">
+        <v>6</v>
+      </c>
+      <c r="H41" t="s">
+        <v>7</v>
+      </c>
+      <c r="I41" t="s">
+        <v>8</v>
+      </c>
+      <c r="J41" t="s">
+        <v>9</v>
+      </c>
+      <c r="K41" t="s">
+        <v>10</v>
+      </c>
+      <c r="L41" t="s">
+        <v>11</v>
+      </c>
+      <c r="M41" t="s">
+        <v>12</v>
+      </c>
+      <c r="N41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="E42" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="E43" t="s">
+        <v>15</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="E44" t="s">
+        <v>16</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="5:14" x14ac:dyDescent="0.3">
+      <c r="E45" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>